--- a/Plantilla/Salida_OMS.xlsx
+++ b/Plantilla/Salida_OMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orbis Data\Desktop\RPA\OMS\Plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D1B551-A537-4039-A779-D484C2C062C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021EF3C5-1DF4-4ADA-B367-2DE313790007}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="10050" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="10050" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis" sheetId="1" r:id="rId1"/>
@@ -2399,44 +2399,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2447,6 +2426,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3075,11 +3075,11 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:BA160"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:R97"/>
+      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3106,8 @@
     <col min="20" max="20" width="10.7109375" style="154" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" style="155" customWidth="1"/>
     <col min="22" max="22" width="10.7109375" style="154" customWidth="1"/>
-    <col min="23" max="25" width="12" style="156" customWidth="1"/>
+    <col min="23" max="24" width="12" style="156" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="156" customWidth="1"/>
     <col min="26" max="26" width="6.5703125" style="156" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="156" customWidth="1"/>
     <col min="28" max="28" width="11.28515625" style="156" customWidth="1"/>
@@ -3117,7 +3118,7 @@
     <col min="33" max="33" width="10.7109375" style="155" customWidth="1"/>
     <col min="34" max="34" width="10.7109375" style="154" customWidth="1"/>
     <col min="35" max="35" width="6.28515625" style="156" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="156" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="156" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="11" style="156" customWidth="1"/>
     <col min="38" max="38" width="11" style="156" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="13.85546875" style="156" customWidth="1"/>
@@ -14396,8 +14397,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:BY105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="AK69" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="AK60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
@@ -14452,7 +14453,7 @@
       <c r="G2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="179" t="e">
+      <c r="J2" s="176" t="e">
         <f>CONCATENATE("MT - ",VLOOKUP("MT",#REF!,2,0))</f>
         <v>#REF!</v>
       </c>
@@ -14462,7 +14463,7 @@
       <c r="N2" s="172"/>
       <c r="O2" s="172"/>
       <c r="P2" s="172"/>
-      <c r="Q2" s="179" t="e">
+      <c r="Q2" s="176" t="e">
         <f>CONCATENATE("BT - ",VLOOKUP("BT",#REF!,2,0))</f>
         <v>#REF!</v>
       </c>
@@ -14472,7 +14473,7 @@
       <c r="U2" s="172"/>
       <c r="V2" s="172"/>
       <c r="W2" s="172"/>
-      <c r="X2" s="180" t="e">
+      <c r="X2" s="177" t="e">
         <f>CONCATENATE("SBT - ",VLOOKUP("SBT",#REF!,2,0))</f>
         <v>#REF!</v>
       </c>
@@ -14482,7 +14483,7 @@
       <c r="AB2" s="172"/>
       <c r="AC2" s="172"/>
       <c r="AD2" s="172"/>
-      <c r="AH2" s="179" t="e">
+      <c r="AH2" s="176" t="e">
         <f>CONCATENATE("MT - ",VLOOKUP("MT",#REF!,2,0))</f>
         <v>#REF!</v>
       </c>
@@ -14492,7 +14493,7 @@
       <c r="AL2" s="172"/>
       <c r="AM2" s="172"/>
       <c r="AN2" s="172"/>
-      <c r="AO2" s="179" t="e">
+      <c r="AO2" s="176" t="e">
         <f>CONCATENATE("BT - ",VLOOKUP("BT",#REF!,2,0))</f>
         <v>#REF!</v>
       </c>
@@ -14502,7 +14503,7 @@
       <c r="AS2" s="172"/>
       <c r="AT2" s="172"/>
       <c r="AU2" s="172"/>
-      <c r="AV2" s="180" t="e">
+      <c r="AV2" s="177" t="e">
         <f>CONCATENATE("SBT - ",VLOOKUP("SBT",#REF!,2,0))</f>
         <v>#REF!</v>
       </c>
@@ -14515,7 +14516,7 @@
       <c r="BE2" s="21"/>
       <c r="BF2" s="27"/>
       <c r="BG2" s="22"/>
-      <c r="BH2" s="178" t="s">
+      <c r="BH2" s="181" t="s">
         <v>1</v>
       </c>
       <c r="BI2" s="172"/>
@@ -14523,7 +14524,7 @@
       <c r="BK2" s="172"/>
       <c r="BL2" s="172"/>
       <c r="BM2" s="172"/>
-      <c r="BN2" s="178" t="s">
+      <c r="BN2" s="181" t="s">
         <v>2</v>
       </c>
       <c r="BO2" s="172"/>
@@ -14531,7 +14532,7 @@
       <c r="BQ2" s="172"/>
       <c r="BR2" s="172"/>
       <c r="BS2" s="172"/>
-      <c r="BT2" s="178" t="s">
+      <c r="BT2" s="181" t="s">
         <v>3</v>
       </c>
       <c r="BU2" s="172"/>
@@ -14563,120 +14564,120 @@
         <f t="shared" ref="G3:G34" si="0">IF(AND(D3="Sin cambios",E3="Sin cambios",F3="Sin cambios")=TRUE,"No","Sí")</f>
         <v>No</v>
       </c>
-      <c r="J3" s="181" t="s">
+      <c r="J3" s="175" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="172"/>
       <c r="L3" s="172"/>
-      <c r="M3" s="182" t="s">
+      <c r="M3" s="173" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="172"/>
-      <c r="O3" s="183" t="s">
+      <c r="O3" s="174" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="172"/>
-      <c r="Q3" s="181" t="s">
+      <c r="Q3" s="175" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="172"/>
       <c r="S3" s="172"/>
-      <c r="T3" s="182" t="s">
+      <c r="T3" s="173" t="s">
         <v>6</v>
       </c>
       <c r="U3" s="172"/>
-      <c r="V3" s="183" t="s">
+      <c r="V3" s="174" t="s">
         <v>7</v>
       </c>
       <c r="W3" s="172"/>
-      <c r="X3" s="184" t="s">
+      <c r="X3" s="171" t="s">
         <v>5</v>
       </c>
       <c r="Y3" s="172"/>
       <c r="Z3" s="172"/>
-      <c r="AA3" s="182" t="s">
+      <c r="AA3" s="173" t="s">
         <v>6</v>
       </c>
       <c r="AB3" s="172"/>
-      <c r="AC3" s="183" t="s">
+      <c r="AC3" s="174" t="s">
         <v>7</v>
       </c>
       <c r="AD3" s="172"/>
-      <c r="AH3" s="181" t="s">
+      <c r="AH3" s="175" t="s">
         <v>5</v>
       </c>
       <c r="AI3" s="172"/>
       <c r="AJ3" s="172"/>
-      <c r="AK3" s="182" t="s">
+      <c r="AK3" s="173" t="s">
         <v>6</v>
       </c>
       <c r="AL3" s="172"/>
-      <c r="AM3" s="183" t="s">
+      <c r="AM3" s="174" t="s">
         <v>7</v>
       </c>
       <c r="AN3" s="172"/>
-      <c r="AO3" s="181" t="s">
+      <c r="AO3" s="175" t="s">
         <v>5</v>
       </c>
       <c r="AP3" s="172"/>
       <c r="AQ3" s="172"/>
-      <c r="AR3" s="182" t="s">
+      <c r="AR3" s="173" t="s">
         <v>6</v>
       </c>
       <c r="AS3" s="172"/>
-      <c r="AT3" s="183" t="s">
+      <c r="AT3" s="174" t="s">
         <v>7</v>
       </c>
       <c r="AU3" s="172"/>
-      <c r="AV3" s="184" t="s">
+      <c r="AV3" s="171" t="s">
         <v>5</v>
       </c>
       <c r="AW3" s="172"/>
       <c r="AX3" s="172"/>
-      <c r="AY3" s="182" t="s">
+      <c r="AY3" s="173" t="s">
         <v>6</v>
       </c>
       <c r="AZ3" s="172"/>
-      <c r="BA3" s="183" t="s">
+      <c r="BA3" s="174" t="s">
         <v>7</v>
       </c>
       <c r="BB3" s="172"/>
       <c r="BE3" s="21"/>
       <c r="BF3" s="27"/>
       <c r="BG3" s="22"/>
-      <c r="BH3" s="175" t="s">
+      <c r="BH3" s="182" t="s">
         <v>126</v>
       </c>
       <c r="BI3" s="172"/>
-      <c r="BJ3" s="175" t="s">
+      <c r="BJ3" s="182" t="s">
         <v>127</v>
       </c>
       <c r="BK3" s="172"/>
-      <c r="BL3" s="176" t="s">
+      <c r="BL3" s="183" t="s">
         <v>128</v>
       </c>
       <c r="BM3" s="172"/>
-      <c r="BN3" s="175" t="s">
+      <c r="BN3" s="182" t="s">
         <v>126</v>
       </c>
       <c r="BO3" s="172"/>
-      <c r="BP3" s="175" t="s">
+      <c r="BP3" s="182" t="s">
         <v>127</v>
       </c>
       <c r="BQ3" s="172"/>
-      <c r="BR3" s="176" t="s">
+      <c r="BR3" s="183" t="s">
         <v>128</v>
       </c>
       <c r="BS3" s="172"/>
-      <c r="BT3" s="175" t="s">
+      <c r="BT3" s="182" t="s">
         <v>126</v>
       </c>
       <c r="BU3" s="172"/>
-      <c r="BV3" s="175" t="s">
+      <c r="BV3" s="182" t="s">
         <v>127</v>
       </c>
       <c r="BW3" s="172"/>
-      <c r="BX3" s="176" t="s">
+      <c r="BX3" s="183" t="s">
         <v>128</v>
       </c>
       <c r="BY3" s="172"/>
@@ -14842,7 +14843,7 @@
       <c r="BE4" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="BF4" s="177" t="s">
+      <c r="BF4" s="185" t="s">
         <v>133</v>
       </c>
       <c r="BG4" s="172"/>
@@ -15109,7 +15110,7 @@
       <c r="BE5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="BF5" s="173" t="s">
+      <c r="BF5" s="184" t="s">
         <v>135</v>
       </c>
       <c r="BG5" s="172"/>
@@ -15394,7 +15395,7 @@
       <c r="BE6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="173" t="s">
+      <c r="BF6" s="184" t="s">
         <v>136</v>
       </c>
       <c r="BG6" s="172"/>
@@ -15679,7 +15680,7 @@
       <c r="BE7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BF7" s="173" t="s">
+      <c r="BF7" s="184" t="s">
         <v>137</v>
       </c>
       <c r="BG7" s="172"/>
@@ -15964,7 +15965,7 @@
       <c r="BE8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="BF8" s="173" t="s">
+      <c r="BF8" s="184" t="s">
         <v>138</v>
       </c>
       <c r="BG8" s="172"/>
@@ -16249,7 +16250,7 @@
       <c r="BE9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="BF9" s="173" t="s">
+      <c r="BF9" s="184" t="s">
         <v>139</v>
       </c>
       <c r="BG9" s="172"/>
@@ -16534,7 +16535,7 @@
       <c r="BE10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BF10" s="173" t="s">
+      <c r="BF10" s="184" t="s">
         <v>140</v>
       </c>
       <c r="BG10" s="172"/>
@@ -16819,7 +16820,7 @@
       <c r="BE11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="173" t="s">
+      <c r="BF11" s="184" t="s">
         <v>141</v>
       </c>
       <c r="BG11" s="172"/>
@@ -17104,7 +17105,7 @@
       <c r="BE12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="BF12" s="173" t="s">
+      <c r="BF12" s="184" t="s">
         <v>142</v>
       </c>
       <c r="BG12" s="172"/>
@@ -17389,7 +17390,7 @@
       <c r="BE13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BF13" s="173" t="s">
+      <c r="BF13" s="184" t="s">
         <v>143</v>
       </c>
       <c r="BG13" s="172"/>
@@ -17674,7 +17675,7 @@
       <c r="BE14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="BF14" s="173" t="s">
+      <c r="BF14" s="184" t="s">
         <v>144</v>
       </c>
       <c r="BG14" s="172"/>
@@ -17894,7 +17895,7 @@
       <c r="BE15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="BF15" s="173" t="s">
+      <c r="BF15" s="184" t="s">
         <v>146</v>
       </c>
       <c r="BG15" s="172"/>
@@ -17994,7 +17995,7 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="J16" s="179" t="e">
+      <c r="J16" s="176" t="e">
         <f>J2</f>
         <v>#REF!</v>
       </c>
@@ -18004,7 +18005,7 @@
       <c r="N16" s="172"/>
       <c r="O16" s="172"/>
       <c r="P16" s="172"/>
-      <c r="Q16" s="179" t="e">
+      <c r="Q16" s="176" t="e">
         <f>Q2</f>
         <v>#REF!</v>
       </c>
@@ -18014,7 +18015,7 @@
       <c r="U16" s="172"/>
       <c r="V16" s="172"/>
       <c r="W16" s="172"/>
-      <c r="X16" s="180" t="e">
+      <c r="X16" s="177" t="e">
         <f>X2</f>
         <v>#REF!</v>
       </c>
@@ -18121,7 +18122,7 @@
       <c r="BE16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BF16" s="173" t="s">
+      <c r="BF16" s="184" t="s">
         <v>147</v>
       </c>
       <c r="BG16" s="172"/>
@@ -18221,42 +18222,42 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="J17" s="181" t="s">
+      <c r="J17" s="175" t="s">
         <v>5</v>
       </c>
       <c r="K17" s="172"/>
       <c r="L17" s="172"/>
-      <c r="M17" s="182" t="s">
+      <c r="M17" s="173" t="s">
         <v>6</v>
       </c>
       <c r="N17" s="172"/>
-      <c r="O17" s="183" t="s">
+      <c r="O17" s="174" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="172"/>
-      <c r="Q17" s="181" t="s">
+      <c r="Q17" s="175" t="s">
         <v>5</v>
       </c>
       <c r="R17" s="172"/>
       <c r="S17" s="172"/>
-      <c r="T17" s="182" t="s">
+      <c r="T17" s="173" t="s">
         <v>6</v>
       </c>
       <c r="U17" s="172"/>
-      <c r="V17" s="183" t="s">
+      <c r="V17" s="174" t="s">
         <v>7</v>
       </c>
       <c r="W17" s="172"/>
-      <c r="X17" s="184" t="s">
+      <c r="X17" s="171" t="s">
         <v>5</v>
       </c>
       <c r="Y17" s="172"/>
       <c r="Z17" s="172"/>
-      <c r="AA17" s="182" t="s">
+      <c r="AA17" s="173" t="s">
         <v>6</v>
       </c>
       <c r="AB17" s="172"/>
-      <c r="AC17" s="183" t="s">
+      <c r="AC17" s="174" t="s">
         <v>7</v>
       </c>
       <c r="AD17" s="172"/>
@@ -18357,7 +18358,7 @@
       <c r="BE17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="BF17" s="173" t="s">
+      <c r="BF17" s="184" t="s">
         <v>148</v>
       </c>
       <c r="BG17" s="172"/>
@@ -18617,7 +18618,7 @@
       <c r="BE18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BF18" s="173" t="s">
+      <c r="BF18" s="184" t="s">
         <v>149</v>
       </c>
       <c r="BG18" s="172"/>
@@ -18899,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="26"/>
-      <c r="BF19" s="171" t="s">
+      <c r="BF19" s="186" t="s">
         <v>151</v>
       </c>
       <c r="BG19" s="172"/>
@@ -19129,7 +19130,7 @@
       <c r="BE20" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="BF20" s="173" t="s">
+      <c r="BF20" s="184" t="s">
         <v>153</v>
       </c>
       <c r="BG20" s="172"/>
@@ -19353,7 +19354,7 @@
       <c r="BE21" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="BF21" s="173" t="s">
+      <c r="BF21" s="184" t="s">
         <v>154</v>
       </c>
       <c r="BG21" s="172"/>
@@ -19453,7 +19454,7 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="J22" s="179" t="e">
+      <c r="J22" s="176" t="e">
         <f>J2</f>
         <v>#REF!</v>
       </c>
@@ -19463,7 +19464,7 @@
       <c r="N22" s="172"/>
       <c r="O22" s="172"/>
       <c r="P22" s="172"/>
-      <c r="Q22" s="179" t="e">
+      <c r="Q22" s="176" t="e">
         <f>Q2</f>
         <v>#REF!</v>
       </c>
@@ -19473,7 +19474,7 @@
       <c r="U22" s="172"/>
       <c r="V22" s="172"/>
       <c r="W22" s="172"/>
-      <c r="X22" s="180" t="e">
+      <c r="X22" s="177" t="e">
         <f>X2</f>
         <v>#REF!</v>
       </c>
@@ -19580,7 +19581,7 @@
       <c r="BE22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="BF22" s="173" t="s">
+      <c r="BF22" s="184" t="s">
         <v>155</v>
       </c>
       <c r="BG22" s="172"/>
@@ -19680,42 +19681,42 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="J23" s="185" t="s">
+      <c r="J23" s="178" t="s">
         <v>5</v>
       </c>
       <c r="K23" s="172"/>
       <c r="L23" s="172"/>
-      <c r="M23" s="186" t="s">
+      <c r="M23" s="179" t="s">
         <v>6</v>
       </c>
       <c r="N23" s="172"/>
-      <c r="O23" s="187" t="s">
+      <c r="O23" s="180" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="172"/>
-      <c r="Q23" s="181" t="s">
+      <c r="Q23" s="175" t="s">
         <v>5</v>
       </c>
       <c r="R23" s="172"/>
       <c r="S23" s="172"/>
-      <c r="T23" s="182" t="s">
+      <c r="T23" s="173" t="s">
         <v>6</v>
       </c>
       <c r="U23" s="172"/>
-      <c r="V23" s="183" t="s">
+      <c r="V23" s="174" t="s">
         <v>7</v>
       </c>
       <c r="W23" s="172"/>
-      <c r="X23" s="184" t="s">
+      <c r="X23" s="171" t="s">
         <v>5</v>
       </c>
       <c r="Y23" s="172"/>
       <c r="Z23" s="172"/>
-      <c r="AA23" s="182" t="s">
+      <c r="AA23" s="173" t="s">
         <v>6</v>
       </c>
       <c r="AB23" s="172"/>
-      <c r="AC23" s="183" t="s">
+      <c r="AC23" s="174" t="s">
         <v>7</v>
       </c>
       <c r="AD23" s="172"/>
@@ -19816,7 +19817,7 @@
       <c r="BE23" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="BF23" s="173" t="s">
+      <c r="BF23" s="184" t="s">
         <v>156</v>
       </c>
       <c r="BG23" s="172"/>
@@ -20079,7 +20080,7 @@
       <c r="BE24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="BF24" s="173" t="s">
+      <c r="BF24" s="184" t="s">
         <v>158</v>
       </c>
       <c r="BG24" s="172"/>
@@ -20364,7 +20365,7 @@
       <c r="BE25" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="BF25" s="173" t="s">
+      <c r="BF25" s="184" t="s">
         <v>159</v>
       </c>
       <c r="BG25" s="172"/>
@@ -20649,7 +20650,7 @@
       <c r="BE26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="BF26" s="173" t="s">
+      <c r="BF26" s="184" t="s">
         <v>160</v>
       </c>
       <c r="BG26" s="172"/>
@@ -20934,7 +20935,7 @@
       <c r="BE27" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="BF27" s="173" t="s">
+      <c r="BF27" s="184" t="s">
         <v>161</v>
       </c>
       <c r="BG27" s="172"/>
@@ -21219,7 +21220,7 @@
       <c r="BE28" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="BF28" s="173" t="s">
+      <c r="BF28" s="184" t="s">
         <v>162</v>
       </c>
       <c r="BG28" s="172"/>
@@ -21504,7 +21505,7 @@
       <c r="BE29" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="BF29" s="174" t="s">
+      <c r="BF29" s="187" t="s">
         <v>163</v>
       </c>
       <c r="BG29" s="172"/>
@@ -21787,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="26"/>
-      <c r="BF30" s="171" t="s">
+      <c r="BF30" s="186" t="s">
         <v>164</v>
       </c>
       <c r="BG30" s="172"/>
@@ -22072,7 +22073,7 @@
       <c r="BE31" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="BF31" s="173" t="s">
+      <c r="BF31" s="184" t="s">
         <v>165</v>
       </c>
       <c r="BG31" s="172"/>
@@ -22357,7 +22358,7 @@
       <c r="BE32" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="BF32" s="173" t="s">
+      <c r="BF32" s="184" t="s">
         <v>166</v>
       </c>
       <c r="BG32" s="172"/>
@@ -22642,7 +22643,7 @@
       <c r="BE33" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="BF33" s="173" t="s">
+      <c r="BF33" s="184" t="s">
         <v>167</v>
       </c>
       <c r="BG33" s="172"/>
@@ -22927,7 +22928,7 @@
       <c r="BE34" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="BF34" s="173" t="s">
+      <c r="BF34" s="184" t="s">
         <v>168</v>
       </c>
       <c r="BG34" s="172"/>
@@ -23147,7 +23148,7 @@
       <c r="BE35" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="BF35" s="173" t="s">
+      <c r="BF35" s="184" t="s">
         <v>169</v>
       </c>
       <c r="BG35" s="172"/>
@@ -23247,7 +23248,7 @@
         <f t="shared" si="58"/>
         <v>No</v>
       </c>
-      <c r="J36" s="179" t="e">
+      <c r="J36" s="176" t="e">
         <f>J2</f>
         <v>#REF!</v>
       </c>
@@ -23257,7 +23258,7 @@
       <c r="N36" s="172"/>
       <c r="O36" s="172"/>
       <c r="P36" s="172"/>
-      <c r="Q36" s="179" t="e">
+      <c r="Q36" s="176" t="e">
         <f>Q2</f>
         <v>#REF!</v>
       </c>
@@ -23267,7 +23268,7 @@
       <c r="U36" s="172"/>
       <c r="V36" s="172"/>
       <c r="W36" s="172"/>
-      <c r="X36" s="180" t="e">
+      <c r="X36" s="177" t="e">
         <f>X2</f>
         <v>#REF!</v>
       </c>
@@ -23374,7 +23375,7 @@
       <c r="BE36" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="BF36" s="173" t="s">
+      <c r="BF36" s="184" t="s">
         <v>170</v>
       </c>
       <c r="BG36" s="172"/>
@@ -23474,42 +23475,42 @@
         <f t="shared" si="58"/>
         <v>No</v>
       </c>
-      <c r="J37" s="181" t="s">
+      <c r="J37" s="175" t="s">
         <v>5</v>
       </c>
       <c r="K37" s="172"/>
       <c r="L37" s="172"/>
-      <c r="M37" s="182" t="s">
+      <c r="M37" s="173" t="s">
         <v>6</v>
       </c>
       <c r="N37" s="172"/>
-      <c r="O37" s="183" t="s">
+      <c r="O37" s="174" t="s">
         <v>7</v>
       </c>
       <c r="P37" s="172"/>
-      <c r="Q37" s="181" t="s">
+      <c r="Q37" s="175" t="s">
         <v>5</v>
       </c>
       <c r="R37" s="172"/>
       <c r="S37" s="172"/>
-      <c r="T37" s="182" t="s">
+      <c r="T37" s="173" t="s">
         <v>6</v>
       </c>
       <c r="U37" s="172"/>
-      <c r="V37" s="183" t="s">
+      <c r="V37" s="174" t="s">
         <v>7</v>
       </c>
       <c r="W37" s="172"/>
-      <c r="X37" s="184" t="s">
+      <c r="X37" s="171" t="s">
         <v>5</v>
       </c>
       <c r="Y37" s="172"/>
       <c r="Z37" s="172"/>
-      <c r="AA37" s="182" t="s">
+      <c r="AA37" s="173" t="s">
         <v>6</v>
       </c>
       <c r="AB37" s="172"/>
-      <c r="AC37" s="183" t="s">
+      <c r="AC37" s="174" t="s">
         <v>7</v>
       </c>
       <c r="AD37" s="172"/>
@@ -23608,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="26"/>
-      <c r="BF37" s="171" t="s">
+      <c r="BF37" s="186" t="s">
         <v>171</v>
       </c>
       <c r="BG37" s="172"/>
@@ -31353,27 +31354,76 @@
     <filterColumn colId="21" showButton="0"/>
   </autoFilter>
   <mergeCells count="106">
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="J36:P36"/>
-    <mergeCell ref="Q36:W36"/>
-    <mergeCell ref="X36:AD36"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="BF37:BG37"/>
+    <mergeCell ref="BF26:BG26"/>
+    <mergeCell ref="BF27:BG27"/>
+    <mergeCell ref="BF28:BG28"/>
+    <mergeCell ref="BF29:BG29"/>
+    <mergeCell ref="BF30:BG30"/>
+    <mergeCell ref="BF31:BG31"/>
+    <mergeCell ref="BF32:BG32"/>
+    <mergeCell ref="BF33:BG33"/>
+    <mergeCell ref="BF34:BG34"/>
+    <mergeCell ref="BF35:BG35"/>
+    <mergeCell ref="BF36:BG36"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BF18:BG18"/>
+    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="BF20:BG20"/>
+    <mergeCell ref="BF21:BG21"/>
+    <mergeCell ref="BF22:BG22"/>
+    <mergeCell ref="BF23:BG23"/>
+    <mergeCell ref="BF24:BG24"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BF7:BG7"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BF10:BG10"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BH2:BM2"/>
+    <mergeCell ref="BN2:BS2"/>
+    <mergeCell ref="BT2:BY2"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:BB2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="J16:P16"/>
     <mergeCell ref="Q16:W16"/>
     <mergeCell ref="X16:AD16"/>
@@ -31389,76 +31439,27 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:S17"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:BB2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BH2:BM2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BT2:BY2"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BR3:BS3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BF7:BG7"/>
-    <mergeCell ref="BF8:BG8"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BF10:BG10"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BF18:BG18"/>
-    <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="BF20:BG20"/>
-    <mergeCell ref="BF21:BG21"/>
-    <mergeCell ref="BF22:BG22"/>
-    <mergeCell ref="BF23:BG23"/>
-    <mergeCell ref="BF24:BG24"/>
-    <mergeCell ref="BF37:BG37"/>
-    <mergeCell ref="BF26:BG26"/>
-    <mergeCell ref="BF27:BG27"/>
-    <mergeCell ref="BF28:BG28"/>
-    <mergeCell ref="BF29:BG29"/>
-    <mergeCell ref="BF30:BG30"/>
-    <mergeCell ref="BF31:BG31"/>
-    <mergeCell ref="BF32:BG32"/>
-    <mergeCell ref="BF33:BG33"/>
-    <mergeCell ref="BF34:BG34"/>
-    <mergeCell ref="BF35:BG35"/>
-    <mergeCell ref="BF36:BG36"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="X36:AD36"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
   </mergeCells>
   <conditionalFormatting sqref="AH5:BB101">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
